--- a/MainTop/26.11.2024/таня_озон/1_москва.xlsx
+++ b/MainTop/26.11.2024/таня_озон/1_москва.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t xml:space="preserve">артикул</t>
   </si>
@@ -31,12 +31,6 @@
     <t xml:space="preserve">количество</t>
   </si>
   <si>
-    <t xml:space="preserve">Термонаклейка Черный Кот Звезды Астрология</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Котенок розовый закат звезды</t>
-  </si>
-  <si>
     <t xml:space="preserve">Термонаклейка Цветы Синии Амариллис</t>
   </si>
   <si>
@@ -94,9 +88,6 @@
     <t xml:space="preserve">Термонаклейка Цветы Желтый Мак</t>
   </si>
   <si>
-    <t xml:space="preserve">Термонаклейки Nike Найк набор</t>
-  </si>
-  <si>
     <t xml:space="preserve">Термонаклейка Цветы Колибри 2шт</t>
   </si>
   <si>
@@ -449,42 +440,6 @@
   </si>
   <si>
     <t xml:space="preserve">Термонаклейка Барт с рогаткой Симпсоны</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Мишка красная гоночная машина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Минни Маус Единорог розовый</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Человек Паук синий желтый круг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Винни Пух и друзья на шаре</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Соник Ежик бежит синий фон краски</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Собачка в очках язык</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Миньон с бананами</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Человек Паук Лого круг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Барби фон розовый круг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Человек Паук синий белый круг</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Жирафвыглядывает замок одежды</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Термонаклейка Динозавр в очках ест бургер</t>
   </si>
 </sst>
 </file>
@@ -526,12 +481,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -568,12 +529,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -594,10 +559,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:C138"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3:D4"/>
+      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D32:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -622,64 +587,64 @@
       <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
+      <c r="C2" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>1</v>
+      <c r="C3" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>5</v>
+      <c r="C4" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>5</v>
+      <c r="C5" s="2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>5</v>
+      <c r="C6" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="0" t="n">
-        <v>5</v>
+      <c r="C7" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>4</v>
+      <c r="C8" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>4</v>
+      <c r="C9" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -687,23 +652,23 @@
         <v>11</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>3</v>
+      <c r="C11" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="0" t="n">
-        <v>3</v>
+      <c r="C12" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -711,23 +676,23 @@
         <v>14</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="0" t="n">
-        <v>3</v>
+      <c r="C14" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>2</v>
+      <c r="C15" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -742,16 +707,16 @@
       <c r="A17" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="0" t="n">
-        <v>2</v>
+      <c r="C17" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="0" t="n">
-        <v>2</v>
+      <c r="C18" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -759,7 +724,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -767,7 +732,7 @@
         <v>21</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -791,7 +756,7 @@
         <v>24</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -799,7 +764,7 @@
         <v>25</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -815,7 +780,7 @@
         <v>27</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -823,7 +788,7 @@
         <v>28</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -838,8 +803,8 @@
       <c r="A29" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="0" t="n">
-        <v>1</v>
+      <c r="C29" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -859,27 +824,27 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="0" t="n">
-        <v>1</v>
+      <c r="C32" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="0" t="n">
-        <v>1</v>
+      <c r="C33" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="0" t="n">
-        <v>1</v>
+      <c r="C34" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -907,11 +872,11 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C38" s="0" t="n">
-        <v>1</v>
+      <c r="C38" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -919,7 +884,7 @@
         <v>40</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -927,7 +892,7 @@
         <v>41</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -943,7 +908,7 @@
         <v>43</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -951,7 +916,7 @@
         <v>44</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -999,7 +964,7 @@
         <v>50</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1023,7 +988,7 @@
         <v>53</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1059,11 +1024,11 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="0" t="n">
-        <v>1</v>
+      <c r="C57" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1087,39 +1052,39 @@
         <v>61</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="0" t="n">
-        <v>1</v>
+      <c r="C61" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C62" s="0" t="n">
-        <v>1</v>
+      <c r="C62" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C63" s="0" t="n">
+      <c r="C63" s="2" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C64" s="0" t="n">
-        <v>1</v>
+      <c r="C64" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1127,7 +1092,7 @@
         <v>66</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1135,7 +1100,7 @@
         <v>67</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1143,7 +1108,7 @@
         <v>68</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1151,7 +1116,7 @@
         <v>69</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1159,7 +1124,7 @@
         <v>70</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1167,7 +1132,7 @@
         <v>71</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1199,7 +1164,7 @@
         <v>75</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1207,7 +1172,7 @@
         <v>76</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1215,7 +1180,7 @@
         <v>77</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1311,7 +1276,7 @@
         <v>89</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1451,11 +1416,11 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C106" s="0" t="n">
-        <v>1</v>
+      <c r="C106" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1471,7 +1436,7 @@
         <v>109</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1479,7 +1444,7 @@
         <v>110</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1487,7 +1452,7 @@
         <v>111</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1495,15 +1460,15 @@
         <v>112</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="A112" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C112" s="0" t="n">
-        <v>4</v>
+      <c r="C112" s="2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1511,7 +1476,7 @@
         <v>114</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1519,7 +1484,7 @@
         <v>115</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1527,7 +1492,7 @@
         <v>116</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1575,7 +1540,7 @@
         <v>122</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1583,7 +1548,7 @@
         <v>123</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1591,7 +1556,7 @@
         <v>124</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1711,126 +1676,6 @@
         <v>139</v>
       </c>
       <c r="C138" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="C139" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="C140" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="C141" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="C142" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="C143" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="C144" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C145" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="C146" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="C147" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="C148" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="C149" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="C150" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="C151" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="C152" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="C153" s="0" t="n">
         <v>1</v>
       </c>
     </row>
